--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.700000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.128409774264324e-31</v>
+        <v>2.686809208582557e-31</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>5.100453216329986e-31</v>
+        <v>2.707532548195154e-31</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>5.07397833671755e-31</v>
+        <v>2.726912621994972e-31</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>5.049076969888601e-31</v>
+        <v>2.74515830112948e-31</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>5.02584095030473e-31</v>
+        <v>2.762478456746149e-31</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>5.004362112427521e-31</v>
+        <v>2.779081959992445e-31</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>4.984732290718565e-31</v>
+        <v>2.795177682015841e-31</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>4.967043319639447e-31</v>
+        <v>2.810974493963804e-31</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>4.951387033651757e-31</v>
+        <v>2.826681266983802e-31</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>4.937855267217084e-31</v>
+        <v>2.842506872223306e-31</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>4.926539854797017e-31</v>
+        <v>2.858660180829777e-31</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>4.917532630853135e-31</v>
+        <v>2.875350063950699e-31</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>4.910925429847034e-31</v>
+        <v>2.892785392733534e-31</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>4.9068100862403e-31</v>
+        <v>2.911175038325751e-31</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>4.905278434494518e-31</v>
+        <v>2.930727871874818e-31</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>4.90642230907128e-31</v>
+        <v>2.951652764528207e-31</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>4.910333544432173e-31</v>
+        <v>2.974158587433384e-31</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>4.917103975038784e-31</v>
+        <v>2.99845421173782e-31</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9268254353527e-31</v>
+        <v>3.024748508588983e-31</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>4.939589759835513e-31</v>
+        <v>3.053250349134343e-31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>4.955488782948807e-31</v>
+        <v>3.084168604521369e-31</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>4.974614339154171e-31</v>
+        <v>3.11771214589753e-31</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>4.997058262913192e-31</v>
+        <v>3.154089844410295e-31</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>5.022912388687459e-31</v>
+        <v>3.193510571207133e-31</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.05226855093856e-31</v>
+        <v>3.236183197435514e-31</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>5.085218584128082e-31</v>
+        <v>3.282316594242906e-31</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>5.121854322717615e-31</v>
+        <v>3.332119632776779e-31</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>5.162267601168743e-31</v>
+        <v>3.385801184184602e-31</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>5.206550253943034e-31</v>
+        <v>3.443570119613814e-31</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>5.25479411550212e-31</v>
+        <v>3.505635310211942e-31</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>5.307091020307566e-31</v>
+        <v>3.572205627126427e-31</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>5.36353280282096e-31</v>
+        <v>3.643489941504737e-31</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>5.424211297503891e-31</v>
+        <v>3.719697124494343e-31</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>5.489218338817947e-31</v>
+        <v>3.801036047242715e-31</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>5.558645761224715e-31</v>
+        <v>3.887715580897319e-31</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>5.632585399185785e-31</v>
+        <v>3.979944596605626e-31</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>5.711129087162742e-31</v>
+        <v>4.077931965515106e-31</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>5.794368659617174e-31</v>
+        <v>4.181886558773225e-31</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>5.882395951010671e-31</v>
+        <v>4.292017247527456e-31</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>5.97530279580482e-31</v>
+        <v>4.408532902925267e-31</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>6.073181028461209e-31</v>
+        <v>4.531642396114125e-31</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>6.176122483441425e-31</v>
+        <v>4.661554598241501e-31</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>6.284218995207057e-31</v>
+        <v>4.798478380454864e-31</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>6.39756239821969e-31</v>
+        <v>4.942622613901682e-31</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>6.516244526940916e-31</v>
+        <v>5.094196169729427e-31</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>6.640357215832321e-31</v>
+        <v>5.253407919085565e-31</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>6.769992299355494e-31</v>
+        <v>5.420466733117566e-31</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>6.905245404095319e-31</v>
+        <v>5.595584422341417e-31</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>7.047136195289469e-31</v>
+        <v>5.779689042485901e-31</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>7.198808351248359e-31</v>
+        <v>5.975355024342528e-31</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>7.363702863190025e-31</v>
+        <v>6.185387253290554e-31</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>7.545260722332511e-31</v>
+        <v>6.41259061470924e-31</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>7.746922919893858e-31</v>
+        <v>6.659769993977844e-31</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>7.972130447092113e-31</v>
+        <v>6.92973027647563e-31</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>8.224324295145308e-31</v>
+        <v>7.225276347581851e-31</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>8.506945455271493e-31</v>
+        <v>7.549213092675767e-31</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>8.823434918688706e-31</v>
+        <v>7.904345397136641e-31</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>9.177233676614993e-31</v>
+        <v>8.29347814634373e-31</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>9.571782720268393e-31</v>
+        <v>8.719416225676294e-31</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.001052304086695e-30</v>
+        <v>9.184964520513592e-31</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.04968956296287e-30</v>
+        <v>9.692927916234883e-31</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.103434147777169e-30</v>
+        <v>1.024611129821943e-30</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.162630157651397e-30</v>
+        <v>1.084731955184649e-30</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.227621691707356e-30</v>
+        <v>1.149935756249531e-30</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.298752849066853e-30</v>
+        <v>1.220503021554517e-30</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.37636772885165e-30</v>
+        <v>1.296714239637493e-30</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.460914652767187e-30</v>
+        <v>1.378966264881656e-30</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.55395879395977e-30</v>
+        <v>1.468902930563238e-30</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.657743300901158e-30</v>
+        <v>1.568925038065328e-30</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.774520854177117e-30</v>
+        <v>1.681444031497997e-30</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.90654413437341e-30</v>
+        <v>1.808871354971319e-30</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>2.056065822075802e-30</v>
+        <v>1.953618452595364e-30</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.225338597870059e-30</v>
+        <v>2.118096768480207e-30</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>2.416615142341942e-30</v>
+        <v>2.304717746735918e-30</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>2.632148136077216e-30</v>
+        <v>2.51589283147257e-30</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>2.874190259661648e-30</v>
+        <v>2.754033466800237e-30</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>3.144994193680999e-30</v>
+        <v>3.021551096828987e-30</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>3.446812618721036e-30</v>
+        <v>3.320857165668896e-30</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>3.781898215367522e-30</v>
+        <v>3.654363117430037e-30</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>4.15250366420622e-30</v>
+        <v>4.024480396222478e-30</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>4.560251024708587e-30</v>
+        <v>4.432973987412369e-30</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>4.999629328785732e-30</v>
+        <v>4.874296707565272e-30</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>5.460617935068438e-30</v>
+        <v>5.338278442523115e-30</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>5.933125080204905e-30</v>
+        <v>5.814676169963982e-30</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>6.407059000843116e-30</v>
+        <v>6.293246867565737e-30</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>6.872327933631733e-30</v>
+        <v>6.763747513006935e-30</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>7.318840115218734e-30</v>
+        <v>7.215935083965429e-30</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>7.736503782252323e-30</v>
+        <v>7.639566558119311e-30</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>8.115227171380703e-30</v>
+        <v>8.024398913146669e-30</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>8.444918519252078e-30</v>
+        <v>8.360189126725589e-30</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>8.715486062514659e-30</v>
+        <v>8.636694176534166e-30</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>8.916838037816641e-30</v>
+        <v>8.843671040250482e-30</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>9.038882681806234e-30</v>
+        <v>8.970876695552629e-30</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>9.071528231131641e-30</v>
+        <v>9.008068120118693e-30</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>9.005676431444938e-30</v>
+        <v>8.946006983550026e-30</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>8.844101968156997e-30</v>
+        <v>8.787461536802092e-30</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>8.597395899394003e-30</v>
+        <v>8.543104384495677e-30</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>8.276286767102216e-30</v>
+        <v>8.223747162587028e-30</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>7.891503113227909e-30</v>
+        <v>7.840201507032405e-30</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>7.453773479717346e-30</v>
+        <v>7.403279053788064e-30</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>6.97382640851679e-30</v>
+        <v>6.923791438810264e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>6.462390441572511e-30</v>
+        <v>6.412550298055259e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>5.930194120831035e-30</v>
+        <v>5.880367267479566e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>5.387965988238108e-30</v>
+        <v>5.338053983038922e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>4.846434585740253e-30</v>
+        <v>4.79642208068984e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>4.316328455283733e-30</v>
+        <v>4.266283196388573e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>3.808376138814816e-30</v>
+        <v>3.75844896609138e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.33330617827977e-30</v>
+        <v>3.283731025754517e-30</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.901847115624858e-30</v>
+        <v>2.85294101133424e-30</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.52394743245768e-30</v>
+        <v>2.476092815225831e-30</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>2.198599223532909e-30</v>
+        <v>2.151995572153643e-30</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.916711983702989e-30</v>
+        <v>1.871192592125252e-30</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.669006630490524e-30</v>
+        <v>1.624034332950565e-30</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.447152000804652e-30</v>
+        <v>1.401897688247713e-30</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.24828827141593e-30</v>
+        <v>1.202084084071368e-30</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.071514383018113e-30</v>
+        <v>1.024015955350155e-30</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>9.159317637722848e-31</v>
+        <v>8.671184305176305e-31</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>7.806387960416945e-31</v>
+        <v>7.308118779945639e-31</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>6.64499167672886e-31</v>
+        <v>6.141498825345578e-31</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>5.659792846708889e-31</v>
+        <v>5.155651516215776e-31</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>4.835071381593139e-31</v>
+        <v>4.334303574593496e-31</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>4.155107192618006e-31</v>
+        <v>3.661181722516294e-31</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.604180191018941e-31</v>
+        <v>3.120012682020787e-31</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>3.166570288032409e-31</v>
+        <v>2.694523175144597e-31</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.826557394894513e-31</v>
+        <v>2.36843992392499e-31</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>2.568421422841355e-31</v>
+        <v>2.125489650399227e-31</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.376442283109039e-31</v>
+        <v>1.949399076604572e-31</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.234899886933664e-31</v>
+        <v>1.823894924578287e-31</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.128074145551335e-31</v>
+        <v>1.732703916357635e-31</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.040244970198155e-31</v>
+        <v>1.659552773979879e-31</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.955692272110224e-31</v>
+        <v>1.588168219482282e-31</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.858700782102842e-31</v>
+        <v>1.502282186202589e-31</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.740223749500585e-31</v>
+        <v>1.392837123645926e-31</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.611117102967427e-31</v>
+        <v>1.272295792155778e-31</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.485933520033343e-31</v>
+        <v>1.157118161864877e-31</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.379225678228309e-31</v>
+        <v>1.063764202905956e-31</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.305096584354819e-31</v>
+        <v>1.008151865915839e-31</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.268225613776196e-31</v>
+        <v>9.948401411852708e-32</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.264352340378185e-31</v>
+        <v>1.017612252662573e-31</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.288863517589098e-31</v>
+        <v>1.069826145186703e-31</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.337145898837287e-31</v>
+        <v>1.144839763596703e-31</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.404586237551074e-31</v>
+        <v>1.236011052731544e-31</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.486571287158786e-31</v>
+        <v>1.336697957430215e-31</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.578487801088752e-31</v>
+        <v>1.440258422531706e-31</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.675722532769299e-31</v>
+        <v>1.540050392875006e-31</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.773662937355494e-31</v>
+        <v>1.629432987978415e-31</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.869235356746785e-31</v>
+        <v>1.704341399092592e-31</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.964168048935535e-31</v>
+        <v>1.768749148003761e-31</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>2.061123270207203e-31</v>
+        <v>1.828193254663109e-31</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>2.162763276847252e-31</v>
+        <v>1.888210739021823e-31</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>2.271750325141142e-31</v>
+        <v>1.954338621031091e-31</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>2.390746671374335e-31</v>
+        <v>2.032113920642099e-31</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>2.522414571832291e-31</v>
+        <v>2.127073657806035e-31</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>2.669416282800472e-31</v>
+        <v>2.244754852474085e-31</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>2.834414060564337e-31</v>
+        <v>2.390694524597438e-31</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>3.020458240235831e-31</v>
+        <v>2.570370410076486e-31</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>3.23317910496533e-31</v>
+        <v>2.788866124441943e-31</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>3.479259407680626e-31</v>
+        <v>3.051104504878769e-31</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>3.765385005940121e-31</v>
+        <v>3.362007914299518e-31</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>4.098241757302044e-31</v>
+        <v>3.726498715616552e-31</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>4.484515519325123e-31</v>
+        <v>4.149499271742779e-31</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>4.930892149567603e-31</v>
+        <v>4.635931945590587e-31</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>5.444057505587892e-31</v>
+        <v>5.190719100072532e-31</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>6.030697444944393e-31</v>
+        <v>5.818783098101165e-31</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>6.697497825195511e-31</v>
+        <v>6.525046302589045e-31</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>7.451144503899643e-31</v>
+        <v>7.31443107644872e-31</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>8.298323338615195e-31</v>
+        <v>8.191859782592746e-31</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>9.24572018690057e-31</v>
+        <v>9.162254783933678e-31</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.03000142824146e-30</v>
+        <v>1.023053237717982e-30</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.145871982695097e-30</v>
+        <v>1.139321547164223e-30</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>1.269199731696489e-30</v>
+        <v>1.262177630042752e-30</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>1.396492653704019e-30</v>
+        <v>1.388303415231897e-30</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>1.524258727176074e-30</v>
+        <v>1.51438083160999e-30</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.649005930571038e-30</v>
+        <v>1.637091808055359e-30</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.767242242347298e-30</v>
+        <v>1.753118273446334e-30</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>1.875475640963239e-30</v>
+        <v>1.859142156661244e-30</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.970214104877205e-30</v>
+        <v>1.951845386578377e-30</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>2.047965612547673e-30</v>
+        <v>2.027909892076155e-30</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>2.105284770580992e-30</v>
+        <v>2.084061793279131e-30</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>2.140756232031009e-30</v>
+        <v>2.118951161537339e-30</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>2.155734889197121e-30</v>
+        <v>2.133853527927562e-30</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>2.151774800551343e-30</v>
+        <v>2.130233180784997e-30</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>2.130430024565695e-30</v>
+        <v>2.109554408444845e-30</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>2.093254619712194e-30</v>
+        <v>2.073281499242303e-30</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>2.041802644462857e-30</v>
+        <v>2.022878741512569e-30</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>1.977628157289702e-30</v>
+        <v>1.959810423590843e-30</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>1.902285216664746e-30</v>
+        <v>1.885540833812321e-30</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>1.817327981245307e-30</v>
+        <v>1.801534404420261e-30</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>1.72437427500793e-30</v>
+        <v>1.709347017723644e-30</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>1.625214631036913e-30</v>
+        <v>1.610782638652384e-30</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>1.521668587178456e-30</v>
+        <v>1.507686895123633e-30</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>1.415555681278762e-30</v>
+        <v>1.401905415054544e-30</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>1.308695451184034e-30</v>
+        <v>1.295283826362272e-30</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>1.202907434740474e-30</v>
+        <v>1.189667756963969e-30</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.100011169794283e-30</v>
+        <v>1.08690283477679e-30</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.001826194191664e-30</v>
+        <v>9.888346877178868e-31</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>9.101720457788604e-31</v>
+        <v>8.973089437044559e-31</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>8.265928331993867e-31</v>
+        <v>8.138921488696729e-31</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>7.510551980232723e-31</v>
+        <v>7.38552462825827e-31</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>6.829651660011274e-31</v>
+        <v>6.70689994806079e-31</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>6.217280901745016e-31</v>
+        <v>6.097041724134546e-31</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>5.667493235849435e-31</v>
+        <v>5.549944232509785e-31</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>5.174342192740024e-31</v>
+        <v>5.05960174921676e-31</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>4.731881302832273e-31</v>
+        <v>4.620008550285722e-31</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>4.334164096541674e-31</v>
+        <v>4.225158911746923e-31</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>3.975244104283716e-31</v>
+        <v>3.869047109630609e-31</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>3.649241464674285e-31</v>
+        <v>3.54573499738982e-31</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>3.352296418156844e-31</v>
+        <v>3.251333925002955e-31</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>3.082884655201166e-31</v>
+        <v>2.984324675834768e-31</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>2.839611960418429e-31</v>
+        <v>2.743320020403893e-31</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>2.621084118419801e-31</v>
+        <v>2.526932729228962e-31</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>2.42590691381646e-31</v>
+        <v>2.333775572828604e-31</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>2.252686131219575e-31</v>
+        <v>2.162461321721453e-31</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>2.10002755524039e-31</v>
+        <v>2.011602746426208e-31</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.96653697048993e-31</v>
+        <v>1.879812617461356e-31</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.850820161579447e-31</v>
+        <v>1.765703705345605e-31</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.751482913120113e-31</v>
+        <v>1.667888780597589e-31</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.667131009723102e-31</v>
+        <v>1.584980613735937e-31</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.596370235999587e-31</v>
+        <v>1.515591975279283e-31</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>1.53780637656074e-31</v>
+        <v>1.458335635746257e-31</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>1.490045216017735e-31</v>
+        <v>1.411824365655492e-31</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.451692538981744e-31</v>
+        <v>1.374670935525619e-31</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.421354130063941e-31</v>
+        <v>1.345488115875269e-31</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.397635773875498e-31</v>
+        <v>1.322888677223075e-31</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.379143255027587e-31</v>
+        <v>1.305485390087668e-31</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>1.364482358131384e-31</v>
+        <v>1.29189102498768e-31</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>1.352258867798059e-31</v>
+        <v>1.280718352441742e-31</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>1.341078568638786e-31</v>
+        <v>1.270580142968487e-31</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>1.329547245264738e-31</v>
+        <v>1.260089167086545e-31</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.316270682287087e-31</v>
+        <v>1.247858195314548e-31</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>1.299854664317008e-31</v>
+        <v>1.23249999817113e-31</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>1.278904975965672e-31</v>
+        <v>1.212627346174919e-31</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>1.252027401844253e-31</v>
+        <v>1.186853009844549e-31</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>1.217827726563941e-31</v>
+        <v>1.153789759698669e-31</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>1.174929031356124e-31</v>
+        <v>1.112067689318223e-31</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.123093178204966e-31</v>
+        <v>1.06145741394069e-31</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.063907791758132e-31</v>
+        <v>1.003558102589992e-31</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>9.991248607487209e-32</v>
+        <v>9.401335396460262e-32</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>9.304963739098331e-32</v>
+        <v>8.72947509488691e-32</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>8.597743199745687e-32</v>
+        <v>8.037637964978833e-32</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>7.887106876760273e-32</v>
+        <v>7.343461850534999e-32</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>7.190574657473087e-32</v>
+        <v>6.664584595354385e-32</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>6.525666429215123e-32</v>
+        <v>6.018644043235961e-32</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>5.909902079317388e-32</v>
+        <v>5.423278037978702e-32</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>5.360801495110873e-32</v>
+        <v>4.89612442338158e-32</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>4.89588456392658e-32</v>
+        <v>4.454821043243567e-32</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>4.532671173095504e-32</v>
+        <v>4.117005741363635e-32</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>4.288681209948646e-32</v>
+        <v>3.900316361540758e-32</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>4.181264984305138e-32</v>
+        <v>3.822218322716814e-32</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>4.215223433075765e-32</v>
+        <v>3.887416956681905e-32</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>4.374401611331394e-32</v>
+        <v>4.079309846976685e-32</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>4.640653853915617e-32</v>
+        <v>4.379270431092447e-32</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>4.995834495671811e-32</v>
+        <v>4.768672146520228e-32</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>5.421797871443407e-32</v>
+        <v>5.228888430751129e-32</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>5.900398316073835e-32</v>
+        <v>5.741292721276253e-32</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>6.413490164406519e-32</v>
+        <v>6.287258455586698e-32</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>6.942927751284889e-32</v>
+        <v>6.848159071173567e-32</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>7.470565411552375e-32</v>
+        <v>7.405368005527961e-32</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>7.978257480052406e-32</v>
+        <v>7.940258696140982e-32</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>8.447858291628407e-32</v>
+        <v>8.434204580503728e-32</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>8.861222181123807e-32</v>
+        <v>8.868579096107302e-32</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>9.200203483382038e-32</v>
+        <v>9.224755680442806e-32</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>9.447118784592247e-32</v>
+        <v>9.48458502551268e-32</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>9.596143232326585e-32</v>
+        <v>9.642161274788791e-32</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>9.654034983875362e-32</v>
+        <v>9.704569984769264e-32</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>9.628159497265691e-32</v>
+        <v>9.679523723683084e-32</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>9.525882230524674e-32</v>
+        <v>9.574735059759227e-32</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>9.354568641679404e-32</v>
+        <v>9.39791656122667e-32</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>9.121584188756997e-32</v>
+        <v>9.1567807963144e-32</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>8.834294329784554e-32</v>
+        <v>8.859040333251396e-32</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>8.500064522789176e-32</v>
+        <v>8.512407740266636e-32</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>8.12626022579797e-32</v>
+        <v>8.124595585589102e-32</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>7.720246896838038e-32</v>
+        <v>7.703316437447775e-32</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>7.289389993936484e-32</v>
+        <v>7.256282864071634e-32</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>6.841054975120413e-32</v>
+        <v>6.791207433689661e-32</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>6.382607298416929e-32</v>
+        <v>6.315802714530836e-32</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>5.921412421853137e-32</v>
+        <v>5.837781274824139e-32</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>5.464835803456574e-32</v>
+        <v>5.364855682799003e-32</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>5.020242901253034e-32</v>
+        <v>4.904738506683052e-32</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>4.594999173271336e-32</v>
+        <v>4.465142314707035e-32</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>4.196470077537314e-32</v>
+        <v>4.053779675098625e-32</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>3.831496726344296e-32</v>
+        <v>3.677812610505556e-32</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>3.501449315385743e-32</v>
+        <v>3.338658863103055e-32</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>3.204444011148876e-32</v>
+        <v>3.034319552625628e-32</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>2.938553884391961e-32</v>
+        <v>2.762750549725701e-32</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>2.701852005873258e-32</v>
+        <v>2.521907725055697e-32</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>2.492411446351032e-32</v>
+        <v>2.309746949268039e-32</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>2.308305276583547e-32</v>
+        <v>2.124224093015153e-32</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>2.147606567329065e-32</v>
+        <v>1.963295026949461e-32</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>2.008388389345852e-32</v>
+        <v>1.824915621723387e-32</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.88872381339217e-32</v>
+        <v>1.707041747989357e-32</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.786685910226284e-32</v>
+        <v>1.607629276399793e-32</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.700347750606455e-32</v>
+        <v>1.524634077607121e-32</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.627782405290949e-32</v>
+        <v>1.456012022263763e-32</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.567062945038028e-32</v>
+        <v>1.399718981022144e-32</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.516262440605957e-32</v>
+        <v>1.353710824534688e-32</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.473453962752998e-32</v>
+        <v>1.315943423453819e-32</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.436710582237417e-32</v>
+        <v>1.284372648431961e-32</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.404105369817475e-32</v>
+        <v>1.256954370121538e-32</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.373713870689408e-32</v>
+        <v>1.231647087138099e-32</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.344157032444542e-32</v>
+        <v>1.206988539686541e-32</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.315283055204839e-32</v>
+        <v>1.182819864716563e-32</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.287107816334793e-32</v>
+        <v>1.1591602798635e-32</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.259647193198899e-32</v>
+        <v>1.136029002762682e-32</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.232917063161652e-32</v>
+        <v>1.113445251049441e-32</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.206933303587548e-32</v>
+        <v>1.09142824235911e-32</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.181711791841082e-32</v>
+        <v>1.06999719432702e-32</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.157268405286748e-32</v>
+        <v>1.049171324588503e-32</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.133619021289041e-32</v>
+        <v>1.028969850778893e-32</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.110779517212457e-32</v>
+        <v>1.009411990533519e-32</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.088765770421491e-32</v>
+        <v>9.905169614877156e-33</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.067593658280636e-32</v>
+        <v>9.723039812768129e-33</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.04727905815439e-32</v>
+        <v>9.547922675361432e-33</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.027837847407245e-32</v>
+        <v>9.38001037901039e-33</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.009285903403716e-32</v>
+        <v>9.21949510006847e-33</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>9.916391035082441e-33</v>
+        <v>9.06656901488854e-33</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>9.749133250853929e-33</v>
+        <v>8.921424299824509e-33</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>9.591244454996073e-33</v>
+        <v>8.784253131229264e-33</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>9.442883421153992e-33</v>
+        <v>8.655247685456268e-33</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>9.304208922972636e-33</v>
+        <v>8.534600138858843e-33</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>9.175379734096956e-33</v>
+        <v>8.42250266779031e-33</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>9.056554628171897e-33</v>
+        <v>8.319147448603984e-33</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>8.947892378842414e-33</v>
+        <v>8.224726657653187e-33</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>8.849551759753458e-33</v>
+        <v>8.139432471291241e-33</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>8.761691544549972e-33</v>
+        <v>8.063457065871459e-33</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>8.684470506876911e-33</v>
+        <v>7.996992617747167e-33</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>8.618047420379225e-33</v>
+        <v>7.940231303271682e-33</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>8.562581058701864e-33</v>
+        <v>7.893365298798324e-33</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>8.518230195489777e-33</v>
+        <v>7.856586780680414e-33</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>8.485153604387915e-33</v>
+        <v>7.830087925271272e-33</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>8.463510059041226e-33</v>
+        <v>7.814060908924212e-33</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>8.453458333094661e-33</v>
+        <v>7.808697907992561e-33</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>8.455157200193171e-33</v>
+        <v>7.814191098829634e-33</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>8.468765433981705e-33</v>
+        <v>7.830732657788752e-33</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>8.494441808105216e-33</v>
+        <v>7.858514761223235e-33</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>8.532345096208648e-33</v>
+        <v>7.897729585486404e-33</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>8.582634071936955e-33</v>
+        <v>7.948569306931574e-33</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>8.64563635059062e-33</v>
+        <v>8.011406577592671e-33</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>8.723252499110073e-33</v>
+        <v>8.088295385290544e-33</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>8.818239012861466e-33</v>
+        <v>8.182204623973265e-33</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>8.933360956354274e-33</v>
+        <v>8.29611234718859e-33</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>9.071383394097964e-33</v>
+        <v>8.432996608484261e-33</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>9.235071390602014e-33</v>
+        <v>8.595835461408029e-33</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>9.427190010375888e-33</v>
+        <v>8.78760695950764e-33</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>9.65050431792907e-33</v>
+        <v>9.01128915633085e-33</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>9.907779377771023e-33</v>
+        <v>9.269860105425401e-33</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.020178025441122e-32</v>
+        <v>9.566297860339045e-33</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.053527201235914e-32</v>
+        <v>9.90358047461953e-33</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.091101971612425e-32</v>
+        <v>1.02846860018146e-32</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.133178843021603e-32</v>
+        <v>1.071259249547202e-32</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.180034321914394e-32</v>
+        <v>1.119027800913952e-32</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.231944914741693e-32</v>
+        <v>1.172072059636432e-32</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.289187127954606e-32</v>
+        <v>1.230689831069578e-32</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.352037468003859e-32</v>
+        <v>1.295178920567939e-32</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.420772441340572e-32</v>
+        <v>1.365837133486467e-32</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.495668554415634e-32</v>
+        <v>1.442962275179878e-32</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.577002313679993e-32</v>
+        <v>1.526852151002947e-32</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.665050225584597e-32</v>
+        <v>1.617804566310449e-32</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.760088796580391e-32</v>
+        <v>1.716117326457159e-32</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.862394533118324e-32</v>
+        <v>1.82208823679785e-32</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.972240999024037e-32</v>
+        <v>1.936012009410645e-32</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.089133186748381e-32</v>
+        <v>2.057375437035118e-32</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>2.210784101503468e-32</v>
+        <v>2.183781582165232e-32</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>2.334651846085148e-32</v>
+        <v>2.312565554833677e-32</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>2.458194523289277e-32</v>
+        <v>2.441062465073145e-32</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>2.578870235911706e-32</v>
+        <v>2.56660742291633e-32</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.694137086748287e-32</v>
+        <v>2.686535538395918e-32</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>2.801453178594872e-32</v>
+        <v>2.798181921544604e-32</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.898276614247316e-32</v>
+        <v>2.898881682395081e-32</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.98206549650147e-32</v>
+        <v>2.985969930980036e-32</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>3.050277928153188e-32</v>
+        <v>3.056781777332165e-32</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>3.100372011998321e-32</v>
+        <v>3.108652331484156e-32</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>3.129805850832721e-32</v>
+        <v>3.138916703468701e-32</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>3.136037547452243e-32</v>
+        <v>3.144910003318493e-32</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>3.116573282915423e-32</v>
+        <v>3.124018210320942e-32</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>3.071382840923397e-32</v>
+        <v>3.076233921044505e-32</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>3.004030338651835e-32</v>
+        <v>3.005352720245159e-32</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>2.9183642817363e-32</v>
+        <v>2.915471090178041e-32</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>2.818233175812353e-32</v>
+        <v>2.810685513098293e-32</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>2.707485526515562e-32</v>
+        <v>2.695092471261056e-32</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>2.589969839481485e-32</v>
+        <v>2.572788446921467e-32</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>2.469534620345689e-32</v>
+        <v>2.447869922334668e-32</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>2.350028374743737e-32</v>
+        <v>2.324433379755799e-32</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.23529960831119e-32</v>
+        <v>2.206575301439998e-32</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>2.128783819251503e-32</v>
+        <v>2.09794681530798e-32</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>2.03110448086605e-32</v>
+        <v>1.999166785497074e-32</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.941712978568182e-32</v>
+        <v>1.909590189878469e-32</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.860056817501834e-32</v>
+        <v>1.828567822149726e-32</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.785583502810937e-32</v>
+        <v>1.755450476008407e-32</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.717740539639426e-32</v>
+        <v>1.689588945152074e-32</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.65597543313129e-32</v>
+        <v>1.630334023278342e-32</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.599735688430344e-32</v>
+        <v>1.57703650408466e-32</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.548468810680582e-32</v>
+        <v>1.529047181268649e-32</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.501622305025938e-32</v>
+        <v>1.485716848527873e-32</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.458643676610345e-32</v>
+        <v>1.44639629955989e-32</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.418980430577737e-32</v>
+        <v>1.410436328062265e-32</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.382080072072045e-32</v>
+        <v>1.377187727732559e-32</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.347390106237204e-32</v>
+        <v>1.346001292268333e-32</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.314358038217146e-32</v>
+        <v>1.316227815367149e-32</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.282431373155805e-32</v>
+        <v>1.287218090726569e-32</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.251057616197113e-32</v>
+        <v>1.258322912044155e-32</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.219684272485004e-32</v>
+        <v>1.228893073017468e-32</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.187768962084254e-32</v>
+        <v>1.198291434157365e-32</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.155121352163609e-32</v>
+        <v>1.166300838171284e-32</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.12198594456968e-32</v>
+        <v>1.133222873187672e-32</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.08863414545128e-32</v>
+        <v>1.099391223403388e-32</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.055337360957218e-32</v>
+        <v>1.065139573015294e-32</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.022366997236304e-32</v>
+        <v>1.03080160622025e-32</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>9.899944604373496e-33</v>
+        <v>9.967110072151183e-33</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>9.58491156709164e-33</v>
+        <v>9.632014601967582e-33</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>9.281284922005579e-33</v>
+        <v>9.30606649362031e-33</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>8.991778730603417e-33</v>
+        <v>8.992602589077973e-33</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>8.719107054373254e-33</v>
+        <v>8.694959730309177e-33</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>8.465983954803199e-33</v>
+        <v>8.416474759282536e-33</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>8.234506044538281e-33</v>
+        <v>8.159823478885225e-33</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>8.023691221222391e-33</v>
+        <v>7.924385627951233e-33</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>7.831599709344809e-33</v>
+        <v>7.708515662994338e-33</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>7.656291428747908e-33</v>
+        <v>7.510567714374157e-33</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>7.495826299274052e-33</v>
+        <v>7.328895912450294e-33</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>7.348264240765605e-33</v>
+        <v>7.16185438758236e-33</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>7.211665173064936e-33</v>
+        <v>7.007797270129965e-33</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>7.084133880102572e-33</v>
+        <v>6.865112472529034e-33</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>6.964616139757902e-33</v>
+        <v>6.732821164747941e-33</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>6.852804633896517e-33</v>
+        <v>6.610506925766335e-33</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>6.748418007397987e-33</v>
+        <v>6.497772884376545e-33</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>6.651174905141881e-33</v>
+        <v>6.394222169370905e-33</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>6.560793972007771e-33</v>
+        <v>6.299457909541748e-33</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>6.476993852875303e-33</v>
+        <v>6.213083233681486e-33</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>6.399493192623884e-33</v>
+        <v>6.134701270582282e-33</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>6.328010636133172e-33</v>
+        <v>6.063915149036559e-33</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>6.262264828282732e-33</v>
+        <v>6.000327997836646e-33</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>6.20197441395214e-33</v>
+        <v>5.943542945774881e-33</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>6.146858038020961e-33</v>
+        <v>5.89316312164359e-33</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>6.096634345368769e-33</v>
+        <v>5.848791654235108e-33</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>6.051021980875129e-33</v>
+        <v>5.810031672341767e-33</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>6.009739589419616e-33</v>
+        <v>5.776486304755901e-33</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.972505815881797e-33</v>
+        <v>5.747758680269839e-33</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.939039305141241e-33</v>
+        <v>5.723451927675915e-33</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.909058702077524e-33</v>
+        <v>5.703169175766463e-33</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.882282651570209e-33</v>
+        <v>5.686513553333811e-33</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.858429798498871e-33</v>
+        <v>5.673088189170296e-33</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.837218787743075e-33</v>
+        <v>5.662496212068247e-33</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.818368264182397e-33</v>
+        <v>5.65434075082e-33</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.801596872696402e-33</v>
+        <v>5.648224934217882e-33</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.786623258164662e-33</v>
+        <v>5.643751891054229e-33</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.773166065466746e-33</v>
+        <v>5.640524750121371e-33</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.760943939482228e-33</v>
+        <v>5.638146640211645e-33</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.749675525090673e-33</v>
+        <v>5.636220690117378e-33</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.739079467171656e-33</v>
+        <v>5.634350028630906e-33</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.728892401933114e-33</v>
+        <v>5.632161506119966e-33</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.719111223808023e-33</v>
+        <v>5.629625123551427e-33</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.709928695787843e-33</v>
+        <v>5.626969134683932e-33</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.701542367244285e-33</v>
+        <v>5.624428104120862e-33</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.69414978754906e-33</v>
+        <v>5.622236596465603e-33</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.687948506073875e-33</v>
+        <v>5.620629176321528e-33</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.68313607219044e-33</v>
+        <v>5.619840408292023e-33</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>5.679910035270463e-33</v>
+        <v>5.620104856980463e-33</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>5.678467944685655e-33</v>
+        <v>5.621657086990233e-33</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>5.679007349807724e-33</v>
+        <v>5.624731662924711e-33</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>5.681725800008378e-33</v>
+        <v>5.629563149387275e-33</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>5.686820844659329e-33</v>
+        <v>5.636386110981309e-33</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>5.694490033132284e-33</v>
+        <v>5.645435112310192e-33</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>5.70493091479895e-33</v>
+        <v>5.656944717977301e-33</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>5.71834103903104e-33</v>
+        <v>5.671149492586022e-33</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>5.734917955200246e-33</v>
+        <v>5.688284000739714e-33</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>5.754859212678306e-33</v>
+        <v>5.70858280704179e-33</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>5.778362360836917e-33</v>
+        <v>5.732280476095616e-33</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>5.805624949047787e-33</v>
+        <v>5.759611572504571e-33</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>5.836844526682623e-33</v>
+        <v>5.790810660872036e-33</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>5.872218643113135e-33</v>
+        <v>5.826112305801389e-33</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>5.911944847711038e-33</v>
+        <v>5.865751071896016e-33</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>5.956220689848034e-33</v>
+        <v>5.909961523759293e-33</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>6.005243718895835e-33</v>
+        <v>5.958978225994598e-33</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>6.059211484226148e-33</v>
+        <v>6.013035743205316e-33</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>6.118321535210688e-33</v>
+        <v>6.072368639994826e-33</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>6.182771421221157e-33</v>
+        <v>6.137211480966505e-33</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>6.252758691629266e-33</v>
+        <v>6.207798830723737e-33</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>6.328480895806726e-33</v>
+        <v>6.2843652538699e-33</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>6.410135583125245e-33</v>
+        <v>6.367145315008375e-33</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>6.497920302956535e-33</v>
+        <v>6.456373578742543e-33</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>6.592032604672301e-33</v>
+        <v>6.552284609675782e-33</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>6.692670037644255e-33</v>
+        <v>6.655112972411477e-33</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>6.800030151244103e-33</v>
+        <v>6.765093231553002e-33</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>6.914310494843554e-33</v>
+        <v>6.882459951703739e-33</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>7.035708617814322e-33</v>
+        <v>7.007447697467072e-33</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>7.164422069528112e-33</v>
+        <v>7.140291033446376e-33</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>7.300643814760797e-33</v>
+        <v>7.281219187085404e-33</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>7.444281468251952e-33</v>
+        <v>7.430129195434765e-33</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>7.594794341082377e-33</v>
+        <v>7.586396202607562e-33</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>7.751602469358618e-33</v>
+        <v>7.749349630735198e-33</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>7.914125889187215e-33</v>
+        <v>7.918318901949076e-33</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>8.081784636674716e-33</v>
+        <v>8.092633438380595e-33</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>8.253998747927664e-33</v>
+        <v>8.271622662161163e-33</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>8.430188259052602e-33</v>
+        <v>8.454615995422175e-33</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>8.609773206156076e-33</v>
+        <v>8.640942860295038e-33</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>8.79217362534463e-33</v>
+        <v>8.829932678911158e-33</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>8.976809552724811e-33</v>
+        <v>9.020914873401933e-33</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>9.163101024403156e-33</v>
+        <v>9.213218865898764e-33</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>9.350468076486215e-33</v>
+        <v>9.406174078533054e-33</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>9.538330745080532e-33</v>
+        <v>9.599109933436209e-33</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>9.72610906629265e-33</v>
+        <v>9.79135585273963e-33</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>9.913223076228934e-33</v>
+        <v>9.982241258574534e-33</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.009909281099629e-32</v>
+        <v>1.017109557307269e-32</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.028313830670108e-32</v>
+        <v>1.035724821836532e-32</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.046477959944985e-32</v>
+        <v>1.054002861658383e-32</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.064346209518257e-32</v>
+        <v>1.071879500123459e-32</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.081936103920752e-32</v>
+        <v>1.089373445145937e-32</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.09934734564776e-32</v>
+        <v>1.106596730445818e-32</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.116684021101791e-32</v>
+        <v>1.123666368348704e-32</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.134050216685351e-32</v>
+        <v>1.140699371180194e-32</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.151550018800953e-32</v>
+        <v>1.15781275126589e-32</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.169287513851103e-32</v>
+        <v>1.175123520931391e-32</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.187366788238311e-32</v>
+        <v>1.192748692502297e-32</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.205891928365086e-32</v>
+        <v>1.210805278304209e-32</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.224967020633937e-32</v>
+        <v>1.229410290662726e-32</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.244696151447372e-32</v>
+        <v>1.248680741903448e-32</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.265183407207902e-32</v>
+        <v>1.268733644351977e-32</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.286532874318034e-32</v>
+        <v>1.289686010333912e-32</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.308848639180278e-32</v>
+        <v>1.311654852174853e-32</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.332234788197142e-32</v>
+        <v>1.3347571822004e-32</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.35678990817347e-32</v>
+        <v>1.359104283132039e-32</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.38241276286009e-32</v>
+        <v>1.38459925755479e-32</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.408750345387556e-32</v>
+        <v>1.41088290777834e-32</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.435433585545792e-32</v>
+        <v>1.437579300964063e-32</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.462093413124719e-32</v>
+        <v>1.464312504273338e-32</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.488360757914262e-32</v>
+        <v>1.490706584867538e-32</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.513866549704344e-32</v>
+        <v>1.516385609908042e-32</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.538241718284888e-32</v>
+        <v>1.540973646556225e-32</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.561117193445817e-32</v>
+        <v>1.564094761973463e-32</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.582123904977055e-32</v>
+        <v>1.585373023321134e-32</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.600898910970904e-32</v>
+        <v>1.604438730180467e-32</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.61729874670101e-32</v>
+        <v>1.621145388146052e-32</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.631454654034716e-32</v>
+        <v>1.63562587656444e-32</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.643515223765433e-32</v>
+        <v>1.648030718459762e-32</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.653629046686576e-32</v>
+        <v>1.65851043685615e-32</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.661944713591557e-32</v>
+        <v>1.667215554777737e-32</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.668610815273789e-32</v>
+        <v>1.674296595248654e-32</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.673775942526685e-32</v>
+        <v>1.679904081293036e-32</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.677588686143655e-32</v>
+        <v>1.684188535935011e-32</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.68019763691812e-32</v>
+        <v>1.687300482198718e-32</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.681751385643487e-32</v>
+        <v>1.689390443108286e-32</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.682398523113171e-32</v>
+        <v>1.690608941687847e-32</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.682287640120584e-32</v>
+        <v>1.691106500961534e-32</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.681526289193044e-32</v>
+        <v>1.690988281142606e-32</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.679995907864332e-32</v>
+        <v>1.690109499825795e-32</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.677500475512037e-32</v>
+        <v>1.688239754036929e-32</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.673843902976432e-32</v>
+        <v>1.685148565042172e-32</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.668830101097792e-32</v>
+        <v>1.680605454107688e-32</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.662262980716391e-32</v>
+        <v>1.674379942499639e-32</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.653946452672502e-32</v>
+        <v>1.66624155148419e-32</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.6436844278064e-32</v>
+        <v>1.655959802327505e-32</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.631280816958357e-32</v>
+        <v>1.643304216295745e-32</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.616539530968649e-32</v>
+        <v>1.628044314655075e-32</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.59926448385788e-32</v>
+        <v>1.609949627704724e-32</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.579281390816037e-32</v>
+        <v>1.588851607409983e-32</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.556489823861195e-32</v>
+        <v>1.56479148062322e-32</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.530804979977906e-32</v>
+        <v>1.537854853649083e-32</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.502142056150716e-32</v>
+        <v>1.508127332792216e-32</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.470416249364177e-32</v>
+        <v>1.475694524357267e-32</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.435559497279155e-32</v>
+        <v>1.440653286580406e-32</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.397998144165808e-32</v>
+        <v>1.403432783824969e-32</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.358722620799469e-32</v>
+        <v>1.364841320616249e-32</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.318754110600352e-32</v>
+        <v>1.325707871292863e-32</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.279113796988674e-32</v>
+        <v>1.286861410193431e-32</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.240690796185398e-32</v>
+        <v>1.249022860816773e-32</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.203593937228194e-32</v>
+        <v>1.212274754343892e-32</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.167646505520239e-32</v>
+        <v>1.176466004299925e-32</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.132671359837835e-32</v>
+        <v>1.141445175165038e-32</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.098491358957285e-32</v>
+        <v>1.107060831419393e-32</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.064929361654892e-32</v>
+        <v>1.073161537543156e-32</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.031808226706956e-32</v>
+        <v>1.039595858016489e-32</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>9.989508128897813e-33</v>
+        <v>1.006212357319558e-32</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>9.661799789796694e-33</v>
+        <v>9.728595999325255e-33</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>9.333185837529538e-33</v>
+        <v>9.393861503355883e-33</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>9.001894859858415e-33</v>
+        <v>9.056405730088131e-33</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>8.666461702953907e-33</v>
+        <v>8.715005839673961e-33</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>8.328064456998327e-33</v>
+        <v>8.370954992429804e-33</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>7.989232790522826e-33</v>
+        <v>8.02683286302095e-33</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>7.652507264302549e-33</v>
+        <v>7.685229494011834e-33</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>7.320428439113962e-33</v>
+        <v>7.348734927968217e-33</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>6.995536875733191e-33</v>
+        <v>7.019939207455523e-33</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>6.680373134936374e-33</v>
+        <v>6.701432375039188e-33</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>6.377477777499643e-33</v>
+        <v>6.395804473284638e-33</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>6.089391364199132e-33</v>
+        <v>6.105645544757306e-33</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>5.81860960000424e-33</v>
+        <v>5.83349897825649e-33</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>5.565974555033929e-33</v>
+        <v>5.580188244934321e-33</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>5.330230905876119e-33</v>
+        <v>5.344355352395438e-33</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>5.109988146392535e-33</v>
+        <v>5.124501706976727e-33</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>4.903855770444902e-33</v>
+        <v>4.919128715015075e-33</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>4.710443271894948e-33</v>
+        <v>4.726737782847368e-33</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>4.528360144604399e-33</v>
+        <v>4.545830316810493e-33</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>4.356215882434981e-33</v>
+        <v>4.374907723241336e-33</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>4.192619979248417e-33</v>
+        <v>4.212471408476782e-33</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>4.036181928906438e-33</v>
+        <v>4.05702277885372e-33</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>3.885511225270766e-33</v>
+        <v>3.907063240709032e-33</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>3.73921736220313e-33</v>
+        <v>3.761094200379609e-33</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>3.595909833565254e-33</v>
+        <v>3.617617064202335e-33</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>3.454198133218865e-33</v>
+        <v>3.475133238514096e-33</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>3.312692977560424e-33</v>
+        <v>3.332145459636217e-33</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>3.171150832758139e-33</v>
+        <v>3.188402914663203e-33</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>3.032599775509534e-33</v>
+        <v>3.047213946077909e-33</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>2.900648038814878e-33</v>
+        <v>2.91251804313708e-33</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>2.778903855674436e-33</v>
+        <v>2.788254695097458e-33</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>2.67097545908848e-33</v>
+        <v>2.678363391215789e-33</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>2.580471082057275e-33</v>
+        <v>2.586783620748815e-33</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>2.510998957581091e-33</v>
+        <v>2.517454872953281e-33</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>2.463275815047506e-33</v>
+        <v>2.471186115433476e-33</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>2.423265944851907e-33</v>
+        <v>2.432814407790917e-33</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>2.375635006134721e-33</v>
+        <v>2.385759045808107e-33</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>2.320491205166919e-33</v>
+        <v>2.330104761229665e-33</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>2.262333450564334e-33</v>
+        <v>2.270674687962039e-33</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>2.205660957245947e-33</v>
+        <v>2.212292290470985e-33</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>2.154972940131119e-33</v>
+        <v>2.159781033222654e-33</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>2.114768614138808e-33</v>
+        <v>2.117964380682781e-33</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>2.089547194188312e-33</v>
+        <v>2.091665797317451e-33</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>2.083621236065665e-33</v>
+        <v>2.085508480394593e-33</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>2.096631627111526e-33</v>
+        <v>2.099103378737834e-33</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>2.123327095538542e-33</v>
+        <v>2.126812627547709e-33</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>2.15822558288674e-33</v>
+        <v>2.162750750244438e-33</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>2.195845030696142e-33</v>
+        <v>2.201032270248239e-33</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>2.231099234155166e-33</v>
+        <v>2.236225724442974e-33</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>2.26172997977966e-33</v>
+        <v>2.266143136650025e-33</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>2.286709354091192e-33</v>
+        <v>2.290007589472696e-33</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>2.305014492587775e-33</v>
+        <v>2.307047956299077e-33</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>2.315622530767428e-33</v>
+        <v>2.31649311051726e-33</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>2.317515846242822e-33</v>
+        <v>2.317575616472313e-33</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>2.310089109420401e-33</v>
+        <v>2.309818332610639e-33</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>2.293439676319857e-33</v>
+        <v>2.293238876180405e-33</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>2.267733450975636e-33</v>
+        <v>2.267903128878348e-33</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>2.233136337422186e-33</v>
+        <v>2.233876972401206e-33</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>2.189814239693954e-33</v>
+        <v>2.191226288445717e-33</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>2.137968900664125e-33</v>
+        <v>2.140056299937329e-33</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>2.078341549529232e-33</v>
+        <v>2.081064438019737e-33</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>2.012090371897263e-33</v>
+        <v>2.015405837772448e-33</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.940384375195162e-33</v>
+        <v>1.944247513668094e-33</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.864392566849868e-33</v>
+        <v>1.868756480179308e-33</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.785283954288323e-33</v>
+        <v>1.790099751778721e-33</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.704227544937471e-33</v>
+        <v>1.709444342938968e-33</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.622392346224253e-33</v>
+        <v>1.627957268132679e-33</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.540947365575609e-33</v>
+        <v>1.546805541832487e-33</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.461058543397947e-33</v>
+        <v>1.467153126067166e-33</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.383538643428613e-33</v>
+        <v>1.389812484744879e-33</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.308523947463387e-33</v>
+        <v>1.314922814958847e-33</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.236074315260897e-33</v>
+        <v>1.242547254977387e-33</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>1.166249606579773e-33</v>
+        <v>1.172748943068817e-33</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.099109681178642e-33</v>
+        <v>1.105591017501455e-33</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.034714398816133e-33</v>
+        <v>1.041136616543617e-33</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>9.731236192509325e-34</v>
+        <v>9.794488784636796e-34</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>9.14397202241494e-34</v>
+        <v>9.205909415297846e-34</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>8.585950075466737e-34</v>
+        <v>8.646259440104777e-34</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>8.057768949248831e-34</v>
+        <v>8.11617024173859e-34</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>7.560027241349558e-34</v>
+        <v>7.616273202884514e-34</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>7.093323549353711e-34</v>
+        <v>7.147199706224226e-34</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>6.658256470848069e-34</v>
+        <v>6.709581134441398e-34</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>6.255423392795737e-34</v>
+        <v>6.304047660122373e-34</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>5.884845923889871e-34</v>
+        <v>5.930653927916377e-34</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>5.545050393762779e-34</v>
+        <v>5.587959953518741e-34</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>5.234323538506833e-34</v>
+        <v>5.274286263253658e-34</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.950952094214412e-34</v>
+        <v>4.987953383445327e-34</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>4.693222796977894e-34</v>
+        <v>4.727281840417944e-34</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>4.459422382889654e-34</v>
+        <v>4.490592160495706e-34</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>4.247837588042073e-34</v>
+        <v>4.276204870002812e-34</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>4.056755148527525e-34</v>
+        <v>4.082440495263459e-34</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>3.884461800438388e-34</v>
+        <v>3.907619562601841e-34</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.729244279867038e-34</v>
+        <v>3.750062598342158e-34</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.589389322905854e-34</v>
+        <v>3.608090128808606e-34</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>3.463183665647212e-34</v>
+        <v>3.480022680325382e-34</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>3.348914044183489e-34</v>
+        <v>3.364180779216684e-34</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>3.244966874797919e-34</v>
+        <v>3.258969136409016e-34</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>3.150500931314523e-34</v>
+        <v>3.163444755043128e-34</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>3.065035623413658e-34</v>
+        <v>3.076969212176442e-34</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>2.988092395869667e-34</v>
+        <v>2.998905803598818e-34</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>2.919192693456894e-34</v>
+        <v>2.928617825100118e-34</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>2.857857960949682e-34</v>
+        <v>2.865468572470207e-34</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>2.803609643122375e-34</v>
+        <v>2.808821341498945e-34</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>2.755969184749315e-34</v>
+        <v>2.758039427976194e-34</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.714458030604847e-34</v>
+        <v>2.712486127691817e-34</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.677950708513389e-34</v>
+        <v>2.671054635562626e-34</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.641918316225811e-34</v>
+        <v>2.630164945812319e-34</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.600716666671315e-34</v>
+        <v>2.585426598759456e-34</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>2.548700925862152e-34</v>
+        <v>2.532448664621724e-34</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.480227284744281e-34</v>
+        <v>2.466841141598169e-34</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.398871122739344e-34</v>
+        <v>2.39256113851324e-34</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.336762903195619e-34</v>
+        <v>2.339110610753555e-34</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>2.293772257502079e-34</v>
+        <v>2.302948339716324e-34</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>2.24355192874739e-34</v>
+        <v>2.254259241792518e-34</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>2.173627902625475e-34</v>
+        <v>2.179640906319256e-34</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.095040858329582e-34</v>
+        <v>2.093363490019054e-34</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.021006283415488e-34</v>
+        <v>2.012256508126278e-34</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.963958621462942e-34</v>
+        <v>1.952149630672114e-34</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.923445261263143e-34</v>
+        <v>1.91237530050181e-34</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.888440973150502e-34</v>
+        <v>1.878731534519772e-34</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.848377243297466e-34</v>
+        <v>1.837644890598486e-34</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.801229627912855e-34</v>
+        <v>1.786966959643919e-34</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.750302865744865e-34</v>
+        <v>1.731675454690559e-34</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.698981133251006e-34</v>
+        <v>1.676854082716602e-34</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.649640804485661e-34</v>
+        <v>1.626085486931451e-34</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.601904295076319e-34</v>
+        <v>1.578850447716494e-34</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.554927900503823e-34</v>
+        <v>1.533935486279031e-34</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.507867916249013e-34</v>
+        <v>1.490127123826365e-34</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.459880637792732e-34</v>
+        <v>1.446211881565795e-34</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.41012236061582e-34</v>
+        <v>1.400976280704623e-34</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.35774938019912e-34</v>
+        <v>1.353206842450151e-34</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.301917992023472e-34</v>
+        <v>1.301690088009679e-34</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.241784491569718e-34</v>
+        <v>1.245212538590508e-34</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.177145193258267e-34</v>
+        <v>1.183239306959839e-34</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.112755505688322e-34</v>
+        <v>1.120493474433031e-34</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.055686380561062e-34</v>
+        <v>1.064153218430327e-34</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.013021836353358e-34</v>
+        <v>1.021410570655259e-34</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>9.918458915420813e-35</v>
+        <v>9.994575628113608e-35</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>9.992412245495455e-35</v>
+        <v>1.005484891819023e-34</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.039585113846262e-34</v>
+        <v>1.043988496967164e-34</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.108875480571745e-34</v>
+        <v>1.111117922365866e-34</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.201492868203531e-34</v>
+        <v>1.20141169679467e-34</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.311817820219156e-34</v>
+        <v>1.309408349033121e-34</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.434230880096155e-34</v>
+        <v>1.429646407860761e-34</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.563112591312066e-34</v>
+        <v>1.556664402057135e-34</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.692843497344424e-34</v>
+        <v>1.685000860401784e-34</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.817804141670766e-34</v>
+        <v>1.809194311674253e-34</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.932592837419651e-34</v>
+        <v>1.923983012044165e-34</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>2.034248871607382e-34</v>
+        <v>2.026343956373895e-34</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>2.121344374348712e-34</v>
+        <v>2.114659986254305e-34</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.192475201668887e-34</v>
+        <v>2.187335703490151e-34</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.246237209592649e-34</v>
+        <v>2.242775709885678e-34</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.281236093824305e-34</v>
+        <v>2.279395005036069e-34</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.297183357356909e-34</v>
+        <v>2.296777117750079e-34</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.295893985436763e-34</v>
+        <v>2.296728369621554e-34</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.279418588875831e-34</v>
+        <v>2.281304072606175e-34</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.249807778486111e-34</v>
+        <v>2.252559538659653e-34</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.209109730529635e-34</v>
+        <v>2.21254775407481e-34</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.159192455426072e-34</v>
+        <v>2.163149597354506e-34</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.101623109191303e-34</v>
+        <v>2.105958548536638e-34</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.037940267944083e-34</v>
+        <v>2.042540786019303e-34</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.969682507803166e-34</v>
+        <v>1.974462488200602e-34</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.898388404887308e-34</v>
+        <v>1.903289833478635e-34</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>1.825596535315263e-34</v>
+        <v>1.830589000251499e-34</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.752746054953756e-34</v>
+        <v>1.757824533236625e-34</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.680453186243065e-34</v>
+        <v>1.685619722463685e-34</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.608927749374701e-34</v>
+        <v>1.61418240783492e-34</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.538376689818394e-34</v>
+        <v>1.543717490529828e-34</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.469006953043872e-34</v>
+        <v>1.474429871727908e-34</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.401025484520865e-34</v>
+        <v>1.406524452608658e-34</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.334639229719102e-34</v>
+        <v>1.340206134351575e-34</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.270055134108312e-34</v>
+        <v>1.275679818136158e-34</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.207480143158222e-34</v>
+        <v>1.213150405141905e-34</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.147121202338564e-34</v>
+        <v>1.152822796548313e-34</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.089185257119065e-34</v>
+        <v>1.094901893534881e-34</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.033879252969455e-34</v>
+        <v>1.039592597281107e-34</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>9.813985825950189e-35</v>
+        <v>9.870883835660882e-35</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.317779491570518e-35</v>
+        <v>9.374238101550383e-35</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>8.849343016414856e-35</v>
+        <v>8.90516978824744e-35</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>8.407818843379508e-35</v>
+        <v>8.462833164737529e-35</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>7.992349415360774e-35</v>
+        <v>8.04638250000613e-35</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>7.602077175254961e-35</v>
+        <v>7.65497206303872e-35</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.236144565958369e-35</v>
+        <v>7.287756122820778e-35</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>6.893694030367304e-35</v>
+        <v>6.943888948337782e-35</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>6.573868011378071e-35</v>
+        <v>6.622524808575214e-35</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>6.275808951886967e-35</v>
+        <v>6.32281797251855e-35</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>5.998659294790562e-35</v>
+        <v>6.043922709153526e-35</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>5.741561482984379e-35</v>
+        <v>5.784993287464845e-35</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>5.503657959365719e-35</v>
+        <v>5.545183976438985e-35</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>5.284091166829967e-35</v>
+        <v>5.323649045060499e-35</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>5.082003548274273e-35</v>
+        <v>5.119542762315722e-35</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>4.89653754659433e-35</v>
+        <v>4.932019397189517e-35</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>4.726835604686647e-35</v>
+        <v>4.760233218667567e-35</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>4.572040165447526e-35</v>
+        <v>4.603338495735349e-35</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>4.431293671773272e-35</v>
+        <v>4.460489497378345e-35</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>4.303738566560186e-35</v>
+        <v>4.330840492582032e-35</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>4.188517292704576e-35</v>
+        <v>4.213545750331887e-35</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>4.084772293102741e-35</v>
+        <v>4.107759539613393e-35</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>3.991646010650985e-35</v>
+        <v>4.012636129412024e-35</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>3.908280888245616e-35</v>
+        <v>3.927329788713262e-35</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>3.833819368782932e-35</v>
+        <v>3.850994786502583e-35</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>3.76740389515924e-35</v>
+        <v>3.782785391765466e-35</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>3.708176910270843e-35</v>
+        <v>3.721855873487392e-35</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>3.655280857014044e-35</v>
+        <v>3.667360500653837e-35</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.607858178285146e-35</v>
+        <v>3.618453542250281e-35</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.565051316980453e-35</v>
+        <v>3.574289267262201e-35</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>3.526002715996269e-35</v>
+        <v>3.534021944675079e-35</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>3.489854818228896e-35</v>
+        <v>3.496805843474389e-35</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>3.455750066574642e-35</v>
+        <v>3.461795232645616e-35</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>3.422830903929805e-35</v>
+        <v>3.428144381174231e-35</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>3.390239773190691e-35</v>
+        <v>3.395007558045717e-35</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>3.357119117253604e-35</v>
+        <v>3.361539032245553e-35</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>3.322611379014847e-35</v>
+        <v>3.326893072759216e-35</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>3.285862624891752e-35</v>
+        <v>3.290227478204065e-35</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>3.246480152618758e-35</v>
+        <v>3.251149327537758e-35</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>3.204979564127551e-35</v>
+        <v>3.210150468821223e-35</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>3.161982589146568e-35</v>
+        <v>3.167826128031999e-35</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>3.118110957404241e-35</v>
+        <v>3.124771531147621e-35</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>3.073986398629008e-35</v>
+        <v>3.081581904145631e-35</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>3.030230642549303e-35</v>
+        <v>3.038852473003566e-35</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>2.987465418893561e-35</v>
+        <v>2.997178463698965e-35</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>2.946312457390215e-35</v>
+        <v>2.957155102209364e-35</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>2.907393487767703e-35</v>
+        <v>2.919377614512302e-35</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>2.871330239754492e-35</v>
+        <v>2.884441226585352e-35</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>2.838744443078916e-35</v>
+        <v>2.852941164405953e-35</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>2.810257827469537e-35</v>
+        <v>2.825472653951766e-35</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>2.786492122654681e-35</v>
+        <v>2.802630921200223e-35</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>2.768069058362872e-35</v>
+        <v>2.78501119212895e-35</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>2.755610364322484e-35</v>
+        <v>2.773208692715425e-35</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>2.749737770261973e-35</v>
+        <v>2.767818648937208e-35</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>2.751073005909774e-35</v>
+        <v>2.769436286771836e-35</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>2.760237800994322e-35</v>
+        <v>2.778656832196849e-35</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>2.777853885244053e-35</v>
+        <v>2.796075511189783e-35</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>2.8045429883874e-35</v>
+        <v>2.822287549728177e-35</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>2.840926840152799e-35</v>
+        <v>2.85788817378957e-35</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>2.887627170268684e-35</v>
+        <v>2.9034726093515e-35</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>2.945265708463493e-35</v>
+        <v>2.959636082391506e-35</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.014464184465658e-35</v>
+        <v>3.026973818887124e-35</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>3.095844328003614e-35</v>
+        <v>3.106081044815895e-35</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>3.190027868805797e-35</v>
+        <v>3.197552986155356e-35</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>3.297636536600642e-35</v>
+        <v>3.301984868883044e-35</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>3.419140167224671e-35</v>
+        <v>3.419834724398956e-35</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>3.553336503546618e-35</v>
+        <v>3.55005030554323e-35</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>3.697987394595168e-35</v>
+        <v>3.690643718462276e-35</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>3.85083925247902e-35</v>
+        <v>3.839613126268398e-35</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>4.009638489306882e-35</v>
+        <v>3.994956692073903e-35</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>4.172131517187455e-35</v>
+        <v>4.154672578991097e-35</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>4.336064748229442e-35</v>
+        <v>4.316758950132286e-35</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>4.499184594541548e-35</v>
+        <v>4.479213968609775e-35</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>4.659237468232475e-35</v>
+        <v>4.64003579753587e-35</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>4.813969781410925e-35</v>
+        <v>4.797222600022877e-35</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>4.961210475232609e-35</v>
+        <v>4.948804905440954e-35</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>5.099443911039934e-35</v>
+        <v>5.093070285977722e-35</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>5.227467001872267e-35</v>
+        <v>5.228428890406663e-35</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>5.344078585644712e-35</v>
+        <v>5.353291622399398e-35</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>5.44807750027237e-35</v>
+        <v>5.466069385627557e-35</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>5.538262583670346e-35</v>
+        <v>5.565173083762761e-35</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.613432673753737e-35</v>
+        <v>5.64901362047663e-35</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>5.672386608437649e-35</v>
+        <v>5.716001899440793e-35</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>5.71392322563718e-35</v>
+        <v>5.764548824326872e-35</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>5.736841363267422e-35</v>
+        <v>5.793065298806473e-35</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>5.739939859243513e-35</v>
+        <v>5.799962226551274e-35</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>5.722017551480547e-35</v>
+        <v>5.783650511232872e-35</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>5.68187327789355e-35</v>
+        <v>5.742541056522827e-35</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>5.618305876397785e-35</v>
+        <v>5.675044766092925e-35</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>5.530546629862053e-35</v>
+        <v>5.580143760548934e-35</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>5.420504555907483e-35</v>
+        <v>5.460357182775329e-35</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>5.291112322648962e-35</v>
+        <v>5.319556316528254e-35</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>5.145304653885138e-35</v>
+        <v>5.161615160918408e-35</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>4.98601627341466e-35</v>
+        <v>4.990407715056498e-35</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>4.816181905036179e-35</v>
+        <v>4.809807978053225e-35</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>4.638736272548348e-35</v>
+        <v>4.623689949019296e-35</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>4.456614099749815e-35</v>
+        <v>4.435927627065413e-35</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>4.272750110439229e-35</v>
+        <v>4.250395011302279e-35</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>4.090042900568221e-35</v>
+        <v>4.070877035655314e-35</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>3.910607392713757e-35</v>
+        <v>3.899226661345321e-35</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>3.735800229440749e-35</v>
+        <v>3.73542747858588e-35</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>3.566947005867102e-35</v>
+        <v>3.579386537003495e-35</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>3.405373317110716e-35</v>
+        <v>3.43101088622467e-35</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>3.252404758289498e-35</v>
+        <v>3.290207575875908e-35</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>3.109366924521349e-35</v>
+        <v>3.156883655583718e-35</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>2.977585410924173e-35</v>
+        <v>3.030946174974601e-35</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>2.858385812615873e-35</v>
+        <v>2.912302183675063e-35</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>2.753090751677451e-35</v>
+        <v>2.800858627034027e-35</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>2.662053629711179e-35</v>
+        <v>2.696488455542709e-35</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>2.583268965667363e-35</v>
+        <v>2.598981883223313e-35</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>2.514379261538266e-35</v>
+        <v>2.508116777303209e-35</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>2.453027019316154e-35</v>
+        <v>2.423671005009767e-35</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>2.396854740993289e-35</v>
+        <v>2.345422433570357e-35</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>2.343504928561935e-35</v>
+        <v>2.273148930212349e-35</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>2.290620084014353e-35</v>
+        <v>2.206628362163113e-35</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>2.236176469737417e-35</v>
+        <v>2.145659865671233e-35</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>2.18071536207461e-35</v>
+        <v>2.090206033576137e-35</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>2.12596731513418e-35</v>
+        <v>2.040305245941917e-35</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>2.073669396441267e-35</v>
+        <v>1.995996297902886e-35</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>2.025558673521012e-35</v>
+        <v>1.95731798459336e-35</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.983372213898555e-35</v>
+        <v>1.924309101147654e-35</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.948814829402585e-35</v>
+        <v>1.897006783842198e-35</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.922558729272839e-35</v>
+        <v>1.875395063884891e-35</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.904050347456925e-35</v>
+        <v>1.859394932857985e-35</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.892664871139181e-35</v>
+        <v>1.848923718238669e-35</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.887777487504062e-35</v>
+        <v>1.843898747504231e-35</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.888763383735953e-35</v>
+        <v>1.844237348131898e-35</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.894997747019271e-35</v>
+        <v>1.849856847598923e-35</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.905855764538426e-35</v>
+        <v>1.860674573382556e-35</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.920718357552522e-35</v>
+        <v>1.876597576233553e-35</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.939103143756886e-35</v>
+        <v>1.897287916740784e-35</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.96066716571084e-35</v>
+        <v>1.92215777538692e-35</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.985073745800767e-35</v>
+        <v>1.950608077819531e-35</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>2.011986206413055e-35</v>
+        <v>1.982039749686185e-35</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>2.041067869934088e-35</v>
+        <v>2.015853716634448e-35</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>2.071982058750251e-35</v>
+        <v>2.051450904311891e-35</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>2.10439209524793e-35</v>
+        <v>2.08823223836608e-35</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>2.13796130181351e-35</v>
+        <v>2.125598644444583e-35</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>2.172344815140792e-35</v>
+        <v>2.162975543554417e-35</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>2.207137859726864e-35</v>
+        <v>2.199967641568074e-35</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>2.24190903453351e-35</v>
+        <v>2.236259320213337e-35</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>2.276226817725033e-35</v>
+        <v>2.271535322699647e-35</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>2.309659687465734e-35</v>
+        <v>2.305480392236442e-35</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>2.341776121919916e-35</v>
+        <v>2.337779272033161e-35</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>2.372144599251883e-35</v>
+        <v>2.368116705299248e-35</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>2.400333597625936e-35</v>
+        <v>2.396177435244137e-35</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>2.425911595206377e-35</v>
+        <v>2.421646205077272e-35</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>2.44844456103583e-35</v>
+        <v>2.444204768219258e-35</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>2.467253499536649e-35</v>
+        <v>2.463242986114291e-35</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>2.481212326820068e-35</v>
+        <v>2.477617984129726e-35</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>2.489147378615843e-35</v>
+        <v>2.486130192378022e-35</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>2.48988499065373e-35</v>
+        <v>2.487580040971637e-35</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>2.482251498663481e-35</v>
+        <v>2.480767960023026e-35</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>2.465073238374855e-35</v>
+        <v>2.464494379644647e-35</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>2.437176545517607e-35</v>
+        <v>2.437559729948956e-35</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>2.397387755821493e-35</v>
+        <v>2.39876444104841e-35</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>2.344533990325512e-35</v>
+        <v>2.346909728214854e-35</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>2.278135909923309e-35</v>
+        <v>2.281490214229073e-35</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>2.199680037942809e-35</v>
+        <v>2.20396600916771e-35</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>2.110998814267831e-35</v>
+        <v>2.116143073653301e-35</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>2.013924678782777e-35</v>
+        <v>2.019827368308959e-35</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.91029051205716e-35</v>
+        <v>1.916825294795932e-35</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.803457647271833e-35</v>
+        <v>1.81047293177366e-35</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.701737898418342e-35</v>
+        <v>1.709060804359369e-35</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.614443536521523e-35</v>
+        <v>1.621880696132702e-35</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>1.550886832606107e-35</v>
+        <v>1.558224390673198e-35</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>1.520379984845339e-35</v>
+        <v>1.527383599485585e-35</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>1.52736001227279e-35</v>
+        <v>1.533826829665115e-35</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>1.558184966636224e-35</v>
+        <v>1.564136362543131e-35</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>1.595023031592466e-35</v>
+        <v>1.600749279926534e-35</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>1.620390589217517e-35</v>
+        <v>1.626439704788279e-35</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.625848614958469e-35</v>
+        <v>1.632736539354704e-35</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.612618681261246e-35</v>
+        <v>1.620519730250781e-35</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.582393927404978e-35</v>
+        <v>1.591125680611862e-35</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>1.536867492668793e-35</v>
+        <v>1.545890793573293e-35</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>1.477732684952704e-35</v>
+        <v>1.486151673550631e-35</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.407838708317216e-35</v>
+        <v>1.41462470079482e-35</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.333950649614247e-35</v>
+        <v>1.338700585859517e-35</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.263662030099286e-35</v>
+        <v>1.266758928967127e-35</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.204487336680129e-35</v>
+        <v>1.207091745253246e-35</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.158637459818662e-35</v>
+        <v>1.162113656433456e-35</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.119762464554032e-35</v>
+        <v>1.124752261686338e-35</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>1.080734745594546e-35</v>
+        <v>1.087073353578291e-35</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.034597781283412e-35</v>
+        <v>1.041340367604013e-35</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>9.78573470839802e-36</v>
+        <v>9.846438247831792e-36</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>9.142020617666774e-36</v>
+        <v>9.190629816198197e-36</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>8.432228805053915e-36</v>
+        <v>8.469070756774793e-36</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>7.6738715396236e-36</v>
+        <v>7.703730433577682e-36</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>6.884895784450464e-36</v>
+        <v>6.912476132073537e-36</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>6.083347727657272e-36</v>
+        <v>6.112238780356434e-36</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>5.287273557366789e-36</v>
+        <v>5.319949306520448e-36</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>4.514719461701787e-36</v>
+        <v>4.552538638659658e-36</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>3.78373162878503e-36</v>
+        <v>3.826937704868142e-36</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>3.112356246739287e-36</v>
+        <v>3.160077433239976e-36</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.518639503687325e-36</v>
+        <v>2.568888751869238e-36</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>2.020627587752342e-36</v>
+        <v>2.070302588850439e-36</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.636090160589729e-36</v>
+        <v>1.680998522441971e-36</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.363509963439317e-36</v>
+        <v>1.400125207657074e-36</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.169812666437228e-36</v>
+        <v>1.19814737385081e-36</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>1.019217510780069e-36</v>
+        <v>1.043044705042386e-36</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>8.896529652501686e-37</v>
+        <v>9.136411081223099e-37</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>7.808787392794381e-37</v>
+        <v>8.060293578067821e-37</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>6.942380965296011e-37</v>
+        <v>7.179021850709291e-37</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>6.283877077733105e-37</v>
+        <v>6.473900755853763e-37</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.807818086834817e-37</v>
+        <v>5.928194403554294e-37</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.488689994864269e-37</v>
+        <v>5.525176086286867e-37</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.300978804084582e-37</v>
+        <v>5.248119096527463e-37</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.219170516758875e-37</v>
+        <v>5.080296726752059e-37</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.217766948992673e-37</v>
+        <v>5.004990090507424e-37</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.276630809466675e-37</v>
+        <v>5.008131644336485e-37</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.388766109899873e-37</v>
+        <v>5.082153154604627e-37</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>5.549153592311843e-37</v>
+        <v>5.220464021525388e-37</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>5.752773998722168e-37</v>
+        <v>5.416473645312304e-37</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>5.994608071150424e-37</v>
+        <v>5.663591426178912e-37</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>6.269636551616195e-37</v>
+        <v>5.955226764338747e-37</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>6.572840182139059e-37</v>
+        <v>6.284789060005345e-37</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>6.899199704738597e-37</v>
+        <v>6.645687713392242e-37</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>7.243695861434387e-37</v>
+        <v>7.031332124712972e-37</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>7.601309394246008e-37</v>
+        <v>7.435131694181072e-37</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>7.967021045193042e-37</v>
+        <v>7.850495822010081e-37</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>8.335811556295068e-37</v>
+        <v>8.27083390841353e-37</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>8.702661669571666e-37</v>
+        <v>8.68955535360496e-37</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>9.062552127042416e-37</v>
+        <v>9.100069557797903e-37</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>9.410463670726897e-37</v>
+        <v>9.495785921205895e-37</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>9.741377042644688e-37</v>
+        <v>9.870113844042473e-37</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.005027298481537e-36</v>
+        <v>1.021646272652117e-36</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.033213223925853e-36</v>
+        <v>1.052824196885553e-36</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.058193554799373e-36</v>
+        <v>1.079886097125909e-36</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.07948196723594e-36</v>
+        <v>1.102196801271692e-36</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.096884601361045e-36</v>
+        <v>1.119568924326056e-36</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.110467340573576e-36</v>
+        <v>1.132212770209982e-36</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.120305097168183e-36</v>
+        <v>1.140352466847435e-36</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.126472783439516e-36</v>
+        <v>1.144212142162378e-36</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.129045311682238e-36</v>
+        <v>1.144015924078783e-36</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.128097594190992e-36</v>
+        <v>1.139987940520613e-36</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.123704543260428e-36</v>
+        <v>1.132352319411821e-36</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.115941071185213e-36</v>
+        <v>1.121333188676399e-36</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.104882090259983e-36</v>
+        <v>1.107154676238286e-36</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.090602512779396e-36</v>
+        <v>1.090040910021457e-36</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.073177251038103e-36</v>
+        <v>1.070216017949875e-36</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.052681217330757e-36</v>
+        <v>1.047904127947507e-36</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.029189323952011e-36</v>
+        <v>1.023329367938318e-36</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.002776483196517e-36</v>
+        <v>9.967158658462729e-37</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>9.735176073589262e-37</v>
+        <v>9.682877495953368e-37</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>9.414876087338913e-37</v>
+        <v>9.382691471094746e-37</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>9.067613996160648e-37</v>
+        <v>9.068841863126519e-37</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>8.694138923000991e-37</v>
+        <v>8.743569951288339e-37</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>8.29519999080646e-37</v>
+        <v>8.409117014819856e-37</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>7.873953747549696e-37</v>
+        <v>8.067790023292118e-37</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>7.463983743628381e-37</v>
+        <v>7.722726194300957e-37</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>7.119728590360923e-37</v>
+        <v>7.37763180817451e-37</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.896033894528374e-37</v>
+        <v>7.036224250744323e-37</v>
       </c>
     </row>
   </sheetData>
